--- a/aiurt-module-system/src/main/resources/templates/materialBaseError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/materialBaseError.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14719\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF7FFA7-28F7-46A7-8326-5C48D874B851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4CF35F-0B22-43C5-AD51-CEDE3646B0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="26445" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物资主数据导入模板" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>专业名称</t>
   </si>
@@ -98,7 +98,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>t.consumablesName}}</t>
+    <t>错误原因</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.text}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.consumablesName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +144,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,6 +207,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I14" activeCellId="1" sqref="J12 I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,9 +505,10 @@
     <col min="6" max="6" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="18.625" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -486,7 +523,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,8 +557,11 @@
       <c r="K2" t="s">
         <v>10</v>
       </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -552,8 +592,11 @@
       <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
-        <v>22</v>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/aiurt-module-system/src/main/resources/templates/materialBaseError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/materialBaseError.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4CF35F-0B22-43C5-AD51-CEDE3646B0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3311B73C-CFDE-40E5-A643-46027FD15215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="26445" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="物资主数据导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="物资主数据导入错误清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>专业名称</t>
   </si>
@@ -55,17 +55,9 @@
     <t>易耗品</t>
   </si>
   <si>
-    <t>物资主数据导入模板</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>t.systemCodeName</t>
   </si>
   <si>
-    <t>{{$fe:maplist t.majorCodeName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>t.baseTypeCodeName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -107,6 +99,22 @@
   </si>
   <si>
     <t>t.consumablesName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写须知：
+1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
+2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
+字段说明：
+红底白字未必填字段!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资主数据导入错误清单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fe:maplist t.majorCodeName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +168,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -195,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,14 +222,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,17 +515,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" activeCellId="1" sqref="J12 I14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
@@ -509,99 +535,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>22</v>
-      </c>
+    <row r="2" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aiurt-module-system/src/main/resources/templates/materialBaseError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/materialBaseError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3311B73C-CFDE-40E5-A643-46027FD15215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A31AA4F-CC1E-4DD3-85CD-EDE46A8D444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1155" windowWidth="26445" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物资主数据导入错误清单" sheetId="1" r:id="rId1"/>
@@ -102,19 +102,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>物资主数据导入错误清单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fe:maplist t.majorCodeName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>填写须知：
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 字段说明：
-红底白字未必填字段!!!!!!!!!!!!!!!!!!!!!!!!!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物资主数据导入错误清单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fe:maplist t.majorCodeName</t>
+红底白字为必填字段!!!!!!!!!!!!!!!!!!!!!!!!!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +518,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -552,7 +552,7 @@
     </row>
     <row r="2" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>

--- a/aiurt-module-system/src/main/resources/templates/materialBaseError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/materialBaseError.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A31AA4F-CC1E-4DD3-85CD-EDE46A8D444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB348F4-37DD-424B-8969-DA0C037148CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1155" windowWidth="26445" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物资主数据导入错误清单" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -177,8 +178,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +205,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -206,20 +220,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -239,6 +262,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,7 +553,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,76 +570,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
@@ -634,10 +669,10 @@
       <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/materialBaseError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/materialBaseError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\aiurt-platform\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB348F4-37DD-424B-8969-DA0C037148CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468EEFAB-B771-4195-A102-A87092F55554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物资主数据导入错误清单" sheetId="1" r:id="rId1"/>
@@ -20,94 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>专业名称</t>
-  </si>
-  <si>
-    <t>子系统名称</t>
-  </si>
-  <si>
-    <t>物资分类名称</t>
-  </si>
-  <si>
-    <t>编码</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>物资名称</t>
-  </si>
-  <si>
-    <t>规格型号</t>
-  </si>
-  <si>
-    <t>生产厂商名称</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>易耗品</t>
-  </si>
-  <si>
-    <t>t.systemCodeName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>t.baseTypeCodeName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>t.name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>t.specifications</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>t.manufactorCodeName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>t.unitName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>t.price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>错误原因</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>t.text}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.consumablesName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>物资主数据导入错误清单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{fe:maplist t.majorCodeName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>填写须知：
@@ -115,26 +63,74 @@
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 字段说明：
 红底白字为必填字段!!!!!!!!!!!!!!!!!!!!!!!!!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资系统类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家/品牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fe:maplist t.code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.majorCodeName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.technicalParameter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -241,39 +237,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,138 +549,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="1" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>